--- a/output/comparison_g3vsother_2021.xlsx
+++ b/output/comparison_g3vsother_2021.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">Group (G3 vs Other)</t>
   </si>
@@ -26,10 +26,19 @@
     <t xml:space="preserve">Other States</t>
   </si>
   <si>
-    <t xml:space="preserve">$125,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01</t>
+    <t xml:space="preserve">$235,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Texas and Louisiana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$215,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12</t>
   </si>
 </sst>
 </file>
@@ -383,6 +392,17 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
